--- a/ReligionData/EU_Religion_Data.xlsx
+++ b/ReligionData/EU_Religion_Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YH\Downloads\Github Repo\CSC3007-project\ReligionData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2188C3B5-8CF6-4934-9F95-2147302C150F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,115 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Bosnia</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +158,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +463,357 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>